--- a/autoConditions/train2LoopCondition.xlsx
+++ b/autoConditions/train2LoopCondition.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,25 +440,45 @@
           <t>condFiles</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>testFiles</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>autoConditions/train2Block1Condition.xlsx</t>
+          <t>autoConditions/train2Block1.xlsx</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>autoConditions/train2Block1Test.xlsx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>autoConditions/train2Block2Condition.xlsx</t>
+          <t>autoConditions/train2Block2.xlsx</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>autoConditions/train2Block2Test.xlsx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>autoConditions/train2Block3Condition.xlsx</t>
+          <t>autoConditions/train2Block3.xlsx</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>autoConditions/train2Block3Test.xlsx</t>
         </is>
       </c>
     </row>
